--- a/prices.xlsx
+++ b/prices.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,17 +519,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1590,0</t>
+          <t>1680,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1560,0</t>
+          <t>1600,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>350</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,7 +539,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1590,0</t>
+          <t>1680,0</t>
         </is>
       </c>
     </row>
@@ -546,42 +549,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jordan 4 Retro A Ma Maniére Violet Ore</t>
+          <t>Jordan 4 Retro Midnight Navy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DV6773-220</t>
+          <t>DH6927-140</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1290,0</t>
+          <t>1180,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1290,0</t>
+          <t>1170,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>246</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1290,0</t>
+          <t>1180,0</t>
         </is>
       </c>
     </row>
@@ -591,37 +594,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan 4 Retro Midnight Navy</t>
+          <t>Nike Dunk High Retro Cargo Khaki (2021)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DH6927-140</t>
+          <t>DD1399-107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1130,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1230,0</t>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>122</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx/Alias</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1230,0</t>
+          <t>560,0</t>
         </is>
       </c>
     </row>
@@ -631,42 +639,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>DD1503-200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -676,32 +684,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -711,7 +719,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>470,0</t>
         </is>
       </c>
     </row>
@@ -721,42 +729,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -766,42 +774,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>108</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>520,0</t>
         </is>
       </c>
     </row>
@@ -811,42 +819,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6Y</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>810,0</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>690,0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>168</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>690,0</t>
+          <t>630,0</t>
         </is>
       </c>
     </row>
@@ -856,12 +859,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey (GS)</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GSB550PB</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -871,27 +874,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>350,0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>74</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>640,0</t>
         </is>
       </c>
     </row>
@@ -901,32 +899,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey Dark Grey</t>
+          <t>Nike Dunk Low Safari Mix (W)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BB550WTG</t>
+          <t>DN3866-100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>540,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>630,0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>119</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -936,7 +934,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -946,42 +944,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey Dark Grey</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BB550WTG</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>590,0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>107</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>510,0</t>
+          <t>620,0</t>
         </is>
       </c>
     </row>
@@ -991,27 +984,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Dark Driftwood (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DD1503-200</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.5W</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>660,0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1021,7 +1014,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>660,0</t>
         </is>
       </c>
     </row>
@@ -1031,82 +1024,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DV4024-002</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6W</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>680,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>580,0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Stockx/Alias</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>470,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DD1391-100</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>690,0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>720,0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>720,0</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,12 +1130,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adidas Samba OG Sporty &amp; Rich White Green</t>
+          <t>adidas Campus 80s South Park Towelie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HQ6075</t>
+          <t>GZ9177</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1192,27 +1145,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>670,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>670,0</t>
+          <t>450,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>670,0</t>
+          <t>470,0</t>
         </is>
       </c>
     </row>
@@ -1222,42 +1175,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adidas Yeezy 700 V3 Dark Glow</t>
+          <t>adidas Yeezy Boost 350 V2 Bone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GX6144</t>
+          <t>HQ6316</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1070,0</t>
+          <t>970,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>990,0</t>
+          <t>1030,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>201</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Stockx/Alias</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1070,0</t>
+          <t>970,0</t>
         </is>
       </c>
     </row>
@@ -1267,32 +1220,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adidas Yeezy Boost 350 V2 Bone</t>
+          <t>adidas Yeezy Slide Pure (Restock Pair)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HQ6316</t>
+          <t>GW1934</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1090,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1030,0</t>
+          <t>680,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1302,7 +1255,203 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1090,0</t>
+          <t>700,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Flax</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FZ5896</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>310,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>390,0</t>
         </is>
       </c>
     </row>
@@ -1312,32 +1461,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Pure (Restock Pair)</t>
+          <t>adidas Yeezy Slide Resin (2022)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GW1934</t>
+          <t>FZ5904</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>700,0</t>
+          <t>390,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>690,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1347,7 +1496,2840 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>700,0</t>
+          <t>390,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>340,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>710,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Split Black White (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DR0501-101</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>910,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD9315-002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD9315-002</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AH7860-101</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>450,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BB550PB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BB550PB</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1503-200</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1503-200</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1503-200</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>430,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low QS LeBron James Fruity Pebbles</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DH8009-600</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Grey</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DJ6188-003</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adidas Samba Black White Gum</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>adidas Samba Black White Gum</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>adidas Samba Black White Gum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>adidas Samba Black White Gum</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1060,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1080,0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1080,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1040,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1110,0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1110,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022) (GS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>378038-116</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>790,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>790,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stockx/Alias</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>790,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BB550NCA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>720,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1010,0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1010,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Judge Grey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DJ6188-200</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>910,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1000,0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1000,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>630,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>670,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>490,0</t>
         </is>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -12,7 +12,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,42 +503,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro High OG Chicago Lost and Found</t>
+          <t>Jordan 1 Low Aluminum (W)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DZ5485-612</t>
+          <t>DC0774-141</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1680,0</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1600,0</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>167</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Stockx/Alias</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1680,0</t>
+          <t>640,0</t>
         </is>
       </c>
     </row>
@@ -549,32 +548,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jordan 4 Retro Midnight Navy</t>
+          <t>Jordan 1 Low Bred Toe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DH6927-140</t>
+          <t>553558-612</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1180,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1170,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>154</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -584,7 +583,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1180,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -594,472 +593,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nike Dunk High Retro Cargo Khaki (2021)</t>
+          <t>Jordan 1 Low Green Toe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DD1399-107</t>
+          <t>553558-371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>580,0</t>
+          <t>880,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>122</t>
+          <t>900,0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Dark Driftwood (W)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DD1503-200</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.5W</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>590,0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Stockx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>590,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DV4024-002</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6W</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>470,0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Stockx/Alias</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>470,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DV4024-002</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7W</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>590,0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Stockx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>590,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DV4024-002</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.5W</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>520,0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>500,0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Stockx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>520,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CW1590-100</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6Y</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CW1590-100</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.5Y</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>640,0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>640,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low Safari Mix (W)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DN3866-100</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.5W</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>570,0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Stockx/Alias</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>570,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DO9457-100</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8W</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>620,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DO9457-100</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.5W</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>660,0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>660,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DO9457-100</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10W</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>580,0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>680,0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Stockx/Alias</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>580,0</t>
+          <t>900,0</t>
         </is>
       </c>
     </row>
@@ -1074,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,32 +694,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adidas Campus 80s South Park Towelie</t>
+          <t>Nike Dunk High Championship White Red</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GZ9177</t>
+          <t>DD1399-106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>730,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>640,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>190</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1165,7 +729,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>730,0</t>
         </is>
       </c>
     </row>
@@ -1175,42 +739,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adidas Yeezy Boost 350 V2 Bone</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HQ6316</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>970,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1030,0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>201</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>970,0</t>
+          <t>550,0</t>
         </is>
       </c>
     </row>
@@ -1220,42 +779,2332 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adidas Yeezy Slide Pure (Restock Pair)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GW1934</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>700,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>680,0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>147</t>
+          <t>650,0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Stockx</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>700,0</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>490,0</t>
         </is>
       </c>
     </row>
@@ -1270,7 +3119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,12 +3195,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>310,0</t>
+          <t>300,0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1386,17 +3235,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>280,0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1406,7 +3255,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
     </row>
@@ -1431,17 +3280,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>280,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1451,7 +3300,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
     </row>
@@ -1476,17 +3325,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>350,0</t>
+          <t>280,0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1496,7 +3345,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>390,0</t>
+          <t>360,0</t>
         </is>
       </c>
     </row>
@@ -1521,17 +3370,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>300,0</t>
+          <t>290,0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1541,7 +3390,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
     </row>
@@ -1566,17 +3415,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>300,0</t>
+          <t>290,0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1586,7 +3435,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
     </row>
@@ -1611,17 +3460,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>300,0</t>
+          <t>290,0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1631,7 +3480,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
     </row>
@@ -1656,17 +3505,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>300,0</t>
+          <t>290,0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1676,7 +3525,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
     </row>
@@ -1701,17 +3550,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>300,0</t>
+          <t>290,0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1721,7 +3570,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>340,0</t>
+          <t>350,0</t>
         </is>
       </c>
     </row>
@@ -1746,17 +3595,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>600,0</t>
+          <t>610,0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>158</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1766,7 +3615,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>600,0</t>
+          <t>610,0</t>
         </is>
       </c>
     </row>
@@ -1791,17 +3640,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>600,0</t>
+          <t>610,0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>158</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1811,7 +3660,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>600,0</t>
+          <t>610,0</t>
         </is>
       </c>
     </row>
@@ -1821,32 +3670,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jordan 1 Low Aluminum (W)</t>
+          <t>Jordan 11 Retro Cherry (2022)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC0774-141</t>
+          <t>CT8012-116</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9W</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>710,0</t>
+          <t>800,0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>640,0</t>
+          <t>790,0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>207</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1856,7 +3705,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>710,0</t>
+          <t>800,0</t>
         </is>
       </c>
     </row>
@@ -1866,42 +3715,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jordan 1 Mid Split Black White (W)</t>
+          <t>Jordan 11 Retro Cherry (2022)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DR0501-101</t>
+          <t>CT8012-116</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>730,0</t>
+          <t>840,0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>910,0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>152</t>
+          <t>980,0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>730,0</t>
+          <t>980,0</t>
         </is>
       </c>
     </row>
@@ -1911,42 +3755,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DD9315-002</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -1956,42 +3795,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DD9315-002</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>123</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2001,42 +3835,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>440,0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>92</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2046,42 +3875,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>440,0</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>92</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2091,42 +3915,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>440,0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>92</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2136,27 +3955,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2166,7 +3985,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2176,27 +3995,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2206,7 +4025,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2216,27 +4035,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Low Pure Violet (W)</t>
+          <t>Nike Dunk High Black White (2021)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AH7860-101</t>
+          <t>DD1399-105</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.5W</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>450,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2246,7 +4065,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -2256,37 +4075,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey</t>
+          <t>Nike Dunk High Championship White Red</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BB550PB</t>
+          <t>DD1399-106</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>150</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -2296,37 +4120,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey</t>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BB550PB</t>
+          <t>DD1503-200</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>149</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -2336,37 +4165,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Dark Driftwood (W)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DD1503-200</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9W</t>
+          <t>6W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>480,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>149</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -2376,37 +4210,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Dark Driftwood (W)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DD1503-200</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>480,0</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>490,0</t>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>142</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2416,37 +4255,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Dark Driftwood (W)</t>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DD1503-200</t>
+          <t>DV4024-002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10W</t>
+          <t>6.5W</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>470,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>570,0</t>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>142</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>570,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2471,27 +4315,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>142</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2516,27 +4360,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>142</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2556,32 +4400,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>110</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>620,0</t>
         </is>
       </c>
     </row>
@@ -2601,32 +4440,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.5W</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>560,0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>110</t>
+          <t>620,0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>620,0</t>
         </is>
       </c>
     </row>
@@ -2646,22 +4480,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>560,0</t>
+          <t>490,0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>141</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2671,7 +4505,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>590,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2681,42 +4515,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>430,0</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>93</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2726,42 +4555,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>430,0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>93</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2771,42 +4595,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>8.5W</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>500,0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>430,0</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>93</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>540,0</t>
         </is>
       </c>
     </row>
@@ -2816,42 +4635,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>430,0</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>93</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>560,0</t>
         </is>
       </c>
     </row>
@@ -2861,42 +4675,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DX3382-400</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>430,0</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>93</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>440,0</t>
+          <t>560,0</t>
         </is>
       </c>
     </row>
@@ -2906,42 +4715,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nike Dunk Low QS LeBron James Fruity Pebbles</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DH8009-600</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9.5W</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>480,0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>610,0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>129</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>620,0</t>
+          <t>560,0</t>
         </is>
       </c>
     </row>
@@ -2951,42 +4755,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CW1590-100</t>
+          <t>DQ7576-001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.5Y</t>
+          <t>10W</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>650,0</t>
+          <t>540,0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>640,0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>136</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>650,0</t>
+          <t>550,0</t>
         </is>
       </c>
     </row>
@@ -2996,27 +4795,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Retro White Grey</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DJ6188-003</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>520,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3026,7 +4825,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>550,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -3036,42 +4835,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Safari Mix (W)</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DN3866-100</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8.5W</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>570,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>630,0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>119</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>570,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -3081,42 +4875,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.5W</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>550,0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>590,0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>590,0</t>
         </is>
       </c>
     </row>
@@ -3126,42 +4915,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -3171,42 +4955,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -3216,42 +4995,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -3261,42 +5035,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9W</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -3306,42 +5075,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>10.5W</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>530,0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -3351,32 +5115,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DD1873-102</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>11W</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>750,0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>195</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3386,7 +5150,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>750,0</t>
         </is>
       </c>
     </row>
@@ -3396,17 +5160,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>4.5Y</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3416,12 +5180,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>470,0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>131</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3441,32 +5205,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>CW1590-100</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.5Y</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>490,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3476,7 +5240,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>570,0</t>
         </is>
       </c>
     </row>
@@ -3486,42 +5250,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -3531,42 +5290,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>105</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>500,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -3576,42 +5330,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nike Dunk Low UCLA</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DD1391-402</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>111</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Stockx</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>530,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -3621,42 +5370,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>adidas Samba Black White Gum</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B75807</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>88</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -3666,42 +5410,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adidas Samba Black White Gum</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>B75807</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7W</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>560,0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>88</t>
+          <t>580,0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>580,0</t>
         </is>
       </c>
     </row>
@@ -3711,42 +5450,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>adidas Samba Black White Gum</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B75807</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>8W</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>520,0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>88</t>
+          <t>600,0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Alias</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>600,0</t>
         </is>
       </c>
     </row>
@@ -3756,42 +5490,1017 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adidas Samba Black White Gum</t>
+          <t>Nike Dunk Low Terry Swoosh (W)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>B75807</t>
+          <t>DZ4706-200</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>11.5W</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>400,0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>7.5</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>420,0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Stockx/Alias</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>420,0</t>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>830,0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>830,0</t>
         </is>
       </c>
     </row>
@@ -3806,7 +6515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,29 +6571,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Cherry (2022)</t>
+          <t>Jordan 1 Mid Shadow Red</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CT8012-116</t>
+          <t>554724-096</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1060,0</t>
+          <t>790,0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1080,0</t>
-        </is>
-      </c>
+          <t>820,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>Alias</t>
@@ -3892,7 +6602,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1080,0</t>
+          <t>820,0</t>
         </is>
       </c>
     </row>
@@ -3902,37 +6612,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Cherry (2022)</t>
+          <t>New Balance 550 White Grey Dark Grey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CT8012-116</t>
+          <t>BB550WTG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1040,0</t>
+          <t>700,0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1110,0</t>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>182</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1110,0</t>
+          <t>700,0</t>
         </is>
       </c>
     </row>
@@ -3942,42 +6657,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jordan 11 Retro Cherry (2022) (GS)</t>
+          <t>Nike Dunk Low Grey Fog</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>378038-116</t>
+          <t>DD1391-103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7Y</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>790,0</t>
+          <t>920,0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>790,0</t>
+          <t>860,0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Stockx/Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>790,0</t>
+          <t>920,0</t>
         </is>
       </c>
     </row>
@@ -3987,37 +6702,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Balance 550 White Black Rain Cloud</t>
+          <t>Nike Dunk Low Grey Fog</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BB550NCA</t>
+          <t>DD1391-103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>720,0</t>
+          <t>730,0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1010,0</t>
+          <t>700,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>191</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Alias</t>
+          <t>Stockx</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1010,0</t>
+          <t>730,0</t>
         </is>
       </c>
     </row>
@@ -4027,29 +6747,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nike Dunk Low Judge Grey</t>
+          <t>Nike Dunk Low Grey Fog</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DJ6188-200</t>
+          <t>DD1391-103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>910,0</t>
+          <t>730,0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1000,0</t>
-        </is>
-      </c>
+          <t>740,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Alias</t>
@@ -4057,7 +6778,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000,0</t>
+          <t>740,0</t>
         </is>
       </c>
     </row>
@@ -4067,29 +6788,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Grey Fog</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DD1391-103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7W</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>540,0</t>
+          <t>760,0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>630,0</t>
-        </is>
-      </c>
+          <t>790,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Alias</t>
@@ -4097,7 +6819,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>630,0</t>
+          <t>790,0</t>
         </is>
       </c>
     </row>
@@ -4107,229 +6829,2001 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+          <t>Nike Dunk Low Grey Fog</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DO9457-100</t>
+          <t>DD1391-103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>690,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>8.5W</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>580,0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>670,0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>670,0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Product_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stockx_payout</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Alias_payout</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Stockx_price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Best_site</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Best_price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>adidas Forum Low The Grinch</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HP6772</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>490,0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Alias</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>adidas Forum Low The Grinch</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HP6772</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>520,0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Stockx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>520,0</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>adidas Forum Low The Grinch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HP6772</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>490,0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>470,0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Stockx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>490,0</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>460,0</t>
         </is>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="flip2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hold1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +438,6052 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Bred Toe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>553558-612</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Green Toe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>553558-371</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>880,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Black White (2021)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DD1399-105</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>730,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>620,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>650,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>440,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>590,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11W</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>750,0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>700,0</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>750,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.5Y</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.5Y</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.5Y</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>560,0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7Y</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>510,0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>580,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>600,0</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>900,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (W)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11.5W</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>640,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>940,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>adidas Forum Low The Grinch</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>HP6772</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>460,0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>adidas Samba OG Black White Gum</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B75807</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Alias_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Best_site</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Flax</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FZ5896</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>300,0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>350,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>310,0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>310,0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>310,0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>360,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>290,0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>290,0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>290,0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>290,0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adidas Yeezy Slide Resin (2022)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FZ5904</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>290,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>330,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Aluminum (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DC0774-141</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>610,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>920,0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>980,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>980,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DD1503-200</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6W</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>StockX/Alias</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>490,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.5W</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.5W</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>480,0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10W</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>540,0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>550,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.5W</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>530,0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>570,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.5W</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.5W</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>380,0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>390,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Triple White (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DD1503-109</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9W</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>410,0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>420,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>470,0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Alias</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low UCLA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DD1391-402</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>500,0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>520,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8W</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>830,0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>StockX</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>830,0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>